--- a/upload/base/报警情况统计月报表（模板） .xlsx
+++ b/upload/base/报警情况统计月报表（模板） .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="19890" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>报警情况统计月报表</t>
   </si>
@@ -30,7 +30,7 @@
     <t>填报人：</t>
   </si>
   <si>
-    <t>核对方式：                            列：1=2+……+14；                     行：1=3+……+12；</t>
+    <t>核对方式：                            列：1=2+……+14；                     行：1=2+……+12；</t>
   </si>
   <si>
     <t>合计</t>
@@ -75,9 +75,6 @@
     <t>其他</t>
   </si>
   <si>
-    <t>报警情况 （起）</t>
-  </si>
-  <si>
     <t>110接警</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>出动警力</t>
   </si>
   <si>
-    <t>处警情况</t>
-  </si>
-  <si>
     <t>处置报警(起)</t>
   </si>
   <si>
@@ -130,15 +124,6 @@
   </si>
   <si>
     <t>继续盘问(人)</t>
-  </si>
-  <si>
-    <t>无效报警(起)</t>
-  </si>
-  <si>
-    <t>死亡(人)</t>
-  </si>
-  <si>
-    <t>受伤(人)</t>
   </si>
 </sst>
 </file>
@@ -146,10 +131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -176,7 +161,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,6 +190,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -198,104 +288,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,13 +295,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -320,103 +305,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +455,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,72 +486,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,17 +585,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,6 +611,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,30 +663,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -696,10 +681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,133 +693,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1249,8 +1234,8 @@
   <sheetPr/>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1408,9 +1393,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
@@ -1435,7 +1418,7 @@
     <row r="6" spans="1:17">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="15">
         <v>2</v>
@@ -1458,7 +1441,7 @@
     <row r="7" spans="1:17">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="15">
         <v>3</v>
@@ -1481,7 +1464,7 @@
     <row r="8" spans="1:17">
       <c r="A8" s="14"/>
       <c r="B8" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="15">
         <v>4</v>
@@ -1504,7 +1487,7 @@
     <row r="9" spans="1:17">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="15">
         <v>5</v>
@@ -1527,7 +1510,7 @@
     <row r="10" spans="1:17">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="15">
         <v>6</v>
@@ -1550,7 +1533,7 @@
     <row r="11" spans="1:17">
       <c r="A11" s="14"/>
       <c r="B11" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="15">
         <v>7</v>
@@ -1573,7 +1556,7 @@
     <row r="12" spans="1:17">
       <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="15">
         <v>8</v>
@@ -1596,7 +1579,7 @@
     <row r="13" spans="1:17">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="15">
         <v>9</v>
@@ -1619,7 +1602,7 @@
     <row r="14" spans="1:17">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="15">
         <v>10</v>
@@ -1642,7 +1625,7 @@
     <row r="15" spans="1:17">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="15">
         <v>11</v>
@@ -1687,7 +1670,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15">
@@ -1709,11 +1692,9 @@
       <c r="Q17" s="15"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="15">
         <v>14</v>
@@ -1736,7 +1717,7 @@
     <row r="19" spans="1:17">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="15">
         <v>15</v>
@@ -1759,7 +1740,7 @@
     <row r="20" spans="1:17">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="15">
         <v>16</v>
@@ -1782,7 +1763,7 @@
     <row r="21" spans="1:17">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="15">
         <v>17</v>
@@ -1805,7 +1786,7 @@
     <row r="22" spans="1:17">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="15">
         <v>18</v>
@@ -1828,7 +1809,7 @@
     <row r="23" spans="1:17">
       <c r="A23" s="14"/>
       <c r="B23" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="15">
         <v>19</v>
@@ -1849,9 +1830,7 @@
       <c r="Q23" s="15"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15">
         <v>20</v>
@@ -1872,9 +1851,7 @@
       <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15">
         <v>21</v>
@@ -1895,9 +1872,7 @@
       <c r="Q25" s="15"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15">
         <v>22</v>
